--- a/task_1.xlsx
+++ b/task_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b250d98f7ab0c2/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DF75460589B3ACB72841707DA64CC5ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E07F59F5-1BA0-44B6-B876-5422822DA96F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4DF75460589B3ACB72841707DA64CC5ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD6F980E-A9AD-46A4-BE5B-93D842F48D46}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">Дефект не влияет на ключевую функциональность, но влияет на 
-пользовательский опыт (Опечатка).
+пользовательский опыт.
 </t>
         </r>
       </text>
@@ -80,7 +80,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Так как опечатка находится не на главной странице поиска.
+Так как дефект находится не на главной странице поиска.
 </t>
         </r>
       </text>
@@ -716,12 +716,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,16 +829,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1386,7 +1394,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
